--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="H2">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="I2">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="J2">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.8028457922207</v>
+        <v>47.95321533333333</v>
       </c>
       <c r="N2">
-        <v>46.8028457922207</v>
+        <v>143.859646</v>
       </c>
       <c r="O2">
-        <v>0.6205009739790228</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="P2">
-        <v>0.6205009739790228</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="Q2">
-        <v>18933.26397700513</v>
+        <v>19432.87075945105</v>
       </c>
       <c r="R2">
-        <v>18933.26397700513</v>
+        <v>174895.8368350595</v>
       </c>
       <c r="S2">
-        <v>0.6036141929825763</v>
+        <v>0.5842674533937804</v>
       </c>
       <c r="T2">
-        <v>0.6036141929825763</v>
+        <v>0.5842674533937804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="H3">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="I3">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="J3">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.29969367813259</v>
+        <v>2.315801333333333</v>
       </c>
       <c r="N3">
-        <v>2.29969367813259</v>
+        <v>6.947404000000001</v>
       </c>
       <c r="O3">
-        <v>0.0304887906489621</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="P3">
-        <v>0.0304887906489621</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="Q3">
-        <v>930.3004280472894</v>
+        <v>938.4702923966133</v>
       </c>
       <c r="R3">
-        <v>930.3004280472894</v>
+        <v>8446.232631569521</v>
       </c>
       <c r="S3">
-        <v>0.02965904572973344</v>
+        <v>0.02821598798302176</v>
       </c>
       <c r="T3">
-        <v>0.02965904572973344</v>
+        <v>0.02821598798302176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="H4">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="I4">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="J4">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.0699311999197</v>
+        <v>14.48034066666667</v>
       </c>
       <c r="N4">
-        <v>13.0699311999197</v>
+        <v>43.441022</v>
       </c>
       <c r="O4">
-        <v>0.173278032609226</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="P4">
-        <v>0.173278032609226</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="Q4">
-        <v>5287.209642506523</v>
+        <v>5868.106794760708</v>
       </c>
       <c r="R4">
-        <v>5287.209642506523</v>
+        <v>52812.96115284636</v>
       </c>
       <c r="S4">
-        <v>0.1685623136806912</v>
+        <v>0.1764301247951298</v>
       </c>
       <c r="T4">
-        <v>0.1685623136806912</v>
+        <v>0.1764301247951298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="H5">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="I5">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="J5">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2550431531025</v>
+        <v>14.91142166666667</v>
       </c>
       <c r="N5">
-        <v>13.2550431531025</v>
+        <v>44.734265</v>
       </c>
       <c r="O5">
-        <v>0.1757322027627891</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="P5">
-        <v>0.1757322027627891</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="Q5">
-        <v>5362.093411123248</v>
+        <v>6042.800843983967</v>
       </c>
       <c r="R5">
-        <v>5362.093411123248</v>
+        <v>54385.2075958557</v>
       </c>
       <c r="S5">
-        <v>0.1709496941987032</v>
+        <v>0.1816824649422016</v>
       </c>
       <c r="T5">
-        <v>0.1709496941987032</v>
+        <v>0.1816824649422015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.60225547766011</v>
+        <v>405.24646</v>
       </c>
       <c r="H6">
-        <v>5.60225547766011</v>
+        <v>1215.73938</v>
       </c>
       <c r="I6">
-        <v>0.01347183192370103</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="J6">
-        <v>0.01347183192370103</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>46.8028457922207</v>
+        <v>0.04719266666666667</v>
       </c>
       <c r="N6">
-        <v>46.8028457922207</v>
+        <v>0.141578</v>
       </c>
       <c r="O6">
-        <v>0.6205009739790228</v>
+        <v>0.0005920695970538957</v>
       </c>
       <c r="P6">
-        <v>0.6205009739790228</v>
+        <v>0.0005920695970538957</v>
       </c>
       <c r="Q6">
-        <v>262.2014992095499</v>
+        <v>19.12466110462667</v>
       </c>
       <c r="R6">
-        <v>262.2014992095499</v>
+        <v>172.12194994164</v>
       </c>
       <c r="S6">
-        <v>0.008359284829938184</v>
+        <v>0.0005750008415604238</v>
       </c>
       <c r="T6">
-        <v>0.008359284829938184</v>
+        <v>0.0005750008415604237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="H7">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="I7">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="J7">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.29969367813259</v>
+        <v>47.95321533333333</v>
       </c>
       <c r="N7">
-        <v>2.29969367813259</v>
+        <v>143.859646</v>
       </c>
       <c r="O7">
-        <v>0.0304887906489621</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="P7">
-        <v>0.0304887906489621</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="Q7">
-        <v>12.88347150525863</v>
+        <v>270.0330752299242</v>
       </c>
       <c r="R7">
-        <v>12.88347150525863</v>
+        <v>2430.297677069318</v>
       </c>
       <c r="S7">
-        <v>0.0004107398631797251</v>
+        <v>0.008118797225054758</v>
       </c>
       <c r="T7">
-        <v>0.0004107398631797251</v>
+        <v>0.008118797225054758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="H8">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="I8">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="J8">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.0699311999197</v>
+        <v>2.315801333333333</v>
       </c>
       <c r="N8">
-        <v>13.0699311999197</v>
+        <v>6.947404000000001</v>
       </c>
       <c r="O8">
-        <v>0.173278032609226</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="P8">
-        <v>0.173278032609226</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="Q8">
-        <v>73.22109365739092</v>
+        <v>13.04068874870356</v>
       </c>
       <c r="R8">
-        <v>73.22109365739092</v>
+        <v>117.366198738332</v>
       </c>
       <c r="S8">
-        <v>0.002334372531381079</v>
+        <v>0.0003920805165649743</v>
       </c>
       <c r="T8">
-        <v>0.002334372531381079</v>
+        <v>0.0003920805165649743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="H9">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="I9">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="J9">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.2550431531025</v>
+        <v>14.48034066666667</v>
       </c>
       <c r="N9">
-        <v>13.2550431531025</v>
+        <v>43.441022</v>
       </c>
       <c r="O9">
-        <v>0.1757322027627891</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="P9">
-        <v>0.1757322027627891</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="Q9">
-        <v>74.25813811108962</v>
+        <v>81.54137096785846</v>
       </c>
       <c r="R9">
-        <v>74.25813811108962</v>
+        <v>733.8723387107261</v>
       </c>
       <c r="S9">
-        <v>0.002367434699202045</v>
+        <v>0.002451617661196961</v>
       </c>
       <c r="T9">
-        <v>0.002367434699202045</v>
+        <v>0.002451617661196961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.73488264164217</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="H10">
-        <v>1.73488264164217</v>
+        <v>16.893533</v>
       </c>
       <c r="I10">
-        <v>0.004171899594502525</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="J10">
-        <v>0.004171899594502525</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.8028457922207</v>
+        <v>14.91142166666667</v>
       </c>
       <c r="N10">
-        <v>46.8028457922207</v>
+        <v>44.734265</v>
       </c>
       <c r="O10">
-        <v>0.6205009739790228</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="P10">
-        <v>0.6205009739790228</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="Q10">
-        <v>81.19744474437897</v>
+        <v>83.96886466758278</v>
       </c>
       <c r="R10">
-        <v>81.19744474437897</v>
+        <v>755.719782008245</v>
       </c>
       <c r="S10">
-        <v>0.002588667761731507</v>
+        <v>0.002524602532018355</v>
       </c>
       <c r="T10">
-        <v>0.002588667761731507</v>
+        <v>0.002524602532018355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.73488264164217</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="H11">
-        <v>1.73488264164217</v>
+        <v>16.893533</v>
       </c>
       <c r="I11">
-        <v>0.004171899594502525</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="J11">
-        <v>0.004171899594502525</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.29969367813259</v>
+        <v>0.04719266666666667</v>
       </c>
       <c r="N11">
-        <v>2.29969367813259</v>
+        <v>0.141578</v>
       </c>
       <c r="O11">
-        <v>0.0304887906489621</v>
+        <v>0.0005920695970538957</v>
       </c>
       <c r="P11">
-        <v>0.0304887906489621</v>
+        <v>0.0005920695970538957</v>
       </c>
       <c r="Q11">
-        <v>3.989698643286467</v>
+        <v>0.2657502905637778</v>
       </c>
       <c r="R11">
-        <v>3.989698643286467</v>
+        <v>2.391752615074</v>
       </c>
       <c r="S11">
-        <v>0.0001271961733452774</v>
+        <v>7.990031294313088E-06</v>
       </c>
       <c r="T11">
-        <v>0.0001271961733452774</v>
+        <v>7.990031294313088E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="H12">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="I12">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="J12">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.0699311999197</v>
+        <v>47.95321533333333</v>
       </c>
       <c r="N12">
-        <v>13.0699311999197</v>
+        <v>143.859646</v>
       </c>
       <c r="O12">
-        <v>0.173278032609226</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="P12">
-        <v>0.173278032609226</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="Q12">
-        <v>22.67479676619811</v>
+        <v>93.92732154783444</v>
       </c>
       <c r="R12">
-        <v>22.67479676619811</v>
+        <v>845.3458939305099</v>
       </c>
       <c r="S12">
-        <v>0.0007228985539786252</v>
+        <v>0.002824012861721014</v>
       </c>
       <c r="T12">
-        <v>0.0007228985539786252</v>
+        <v>0.002824012861721014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="H13">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="I13">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="J13">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.2550431531025</v>
+        <v>2.315801333333333</v>
       </c>
       <c r="N13">
-        <v>13.2550431531025</v>
+        <v>6.947404000000001</v>
       </c>
       <c r="O13">
-        <v>0.1757322027627891</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="P13">
-        <v>0.1757322027627891</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="Q13">
-        <v>22.99594428053543</v>
+        <v>4.536025685971111</v>
       </c>
       <c r="R13">
-        <v>22.99594428053543</v>
+        <v>40.82423117374</v>
       </c>
       <c r="S13">
-        <v>0.0007331371054471155</v>
+        <v>0.0001363798590994171</v>
       </c>
       <c r="T13">
-        <v>0.0007331371054471155</v>
+        <v>0.0001363798590994171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.91962081648807</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="H14">
-        <v>2.91962081648807</v>
+        <v>5.876185</v>
       </c>
       <c r="I14">
-        <v>0.007020858130713827</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="J14">
-        <v>0.007020858130713827</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.8028457922207</v>
+        <v>14.48034066666667</v>
       </c>
       <c r="N14">
-        <v>46.8028457922207</v>
+        <v>43.441022</v>
       </c>
       <c r="O14">
-        <v>0.6205009739790228</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="P14">
-        <v>0.6205009739790228</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="Q14">
-        <v>136.6465628458486</v>
+        <v>28.36305354011889</v>
       </c>
       <c r="R14">
-        <v>136.6465628458486</v>
+        <v>255.26748186107</v>
       </c>
       <c r="S14">
-        <v>0.004356449308276471</v>
+        <v>0.0008527617595715867</v>
       </c>
       <c r="T14">
-        <v>0.004356449308276471</v>
+        <v>0.0008527617595715863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.91962081648807</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="H15">
-        <v>2.91962081648807</v>
+        <v>5.876185</v>
       </c>
       <c r="I15">
-        <v>0.007020858130713827</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="J15">
-        <v>0.007020858130713827</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.29969367813259</v>
+        <v>14.91142166666667</v>
       </c>
       <c r="N15">
-        <v>2.29969367813259</v>
+        <v>44.734265</v>
       </c>
       <c r="O15">
-        <v>0.0304887906489621</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="P15">
-        <v>0.0304887906489621</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="Q15">
-        <v>6.714233534221925</v>
+        <v>29.20742410878055</v>
       </c>
       <c r="R15">
-        <v>6.714233534221925</v>
+        <v>262.866816979025</v>
       </c>
       <c r="S15">
-        <v>0.0002140574737233972</v>
+        <v>0.0008781485512597204</v>
       </c>
       <c r="T15">
-        <v>0.0002140574737233972</v>
+        <v>0.0008781485512597201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.91962081648807</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="H16">
-        <v>2.91962081648807</v>
+        <v>5.876185</v>
       </c>
       <c r="I16">
-        <v>0.007020858130713827</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="J16">
-        <v>0.007020858130713827</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>13.0699311999197</v>
+        <v>0.04719266666666667</v>
       </c>
       <c r="N16">
-        <v>13.0699311999197</v>
+        <v>0.141578</v>
       </c>
       <c r="O16">
-        <v>0.173278032609226</v>
+        <v>0.0005920695970538957</v>
       </c>
       <c r="P16">
-        <v>0.173278032609226</v>
+        <v>0.0005920695970538957</v>
       </c>
       <c r="Q16">
-        <v>38.15924320135246</v>
+        <v>0.09243761332555556</v>
       </c>
       <c r="R16">
-        <v>38.15924320135246</v>
+        <v>0.83193851993</v>
       </c>
       <c r="S16">
-        <v>0.00121656048411858</v>
+        <v>2.779223389279977E-06</v>
       </c>
       <c r="T16">
-        <v>0.00121656048411858</v>
+        <v>2.779223389279977E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="H17">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="I17">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="J17">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2550431531025</v>
+        <v>47.95321533333333</v>
       </c>
       <c r="N17">
-        <v>13.2550431531025</v>
+        <v>143.859646</v>
       </c>
       <c r="O17">
-        <v>0.1757322027627891</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="P17">
-        <v>0.1757322027627891</v>
+        <v>0.6016112859309785</v>
       </c>
       <c r="Q17">
-        <v>38.69969991324572</v>
+        <v>156.4988188250526</v>
       </c>
       <c r="R17">
-        <v>38.69969991324572</v>
+        <v>1408.489369425474</v>
       </c>
       <c r="S17">
-        <v>0.001233790864595379</v>
+        <v>0.004705283509878655</v>
       </c>
       <c r="T17">
-        <v>0.001233790864595379</v>
+        <v>0.004705283509878654</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.06048449615627</v>
+        <v>3.263573</v>
       </c>
       <c r="H18">
-        <v>1.06048449615627</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="I18">
-        <v>0.002550163759378418</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="J18">
-        <v>0.002550163759378418</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.8028457922207</v>
+        <v>2.315801333333333</v>
       </c>
       <c r="N18">
-        <v>46.8028457922207</v>
+        <v>6.947404000000001</v>
       </c>
       <c r="O18">
-        <v>0.6205009739790228</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="P18">
-        <v>0.6205009739790228</v>
+        <v>0.0290535724960843</v>
       </c>
       <c r="Q18">
-        <v>49.63369233864277</v>
+        <v>7.557786704830666</v>
       </c>
       <c r="R18">
-        <v>49.63369233864277</v>
+        <v>68.020080343476</v>
       </c>
       <c r="S18">
-        <v>0.001582379096500315</v>
+        <v>0.00022723193325295</v>
       </c>
       <c r="T18">
-        <v>0.001582379096500315</v>
+        <v>0.0002272319332529499</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.06048449615627</v>
+        <v>3.263573</v>
       </c>
       <c r="H19">
-        <v>1.06048449615627</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="I19">
-        <v>0.002550163759378418</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="J19">
-        <v>0.002550163759378418</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.29969367813259</v>
+        <v>14.48034066666667</v>
       </c>
       <c r="N19">
-        <v>2.29969367813259</v>
+        <v>43.441022</v>
       </c>
       <c r="O19">
-        <v>0.0304887906489621</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="P19">
-        <v>0.0304887906489621</v>
+        <v>0.1816674087156862</v>
       </c>
       <c r="Q19">
-        <v>2.438789491568199</v>
+        <v>47.25764883053533</v>
       </c>
       <c r="R19">
-        <v>2.438789491568199</v>
+        <v>425.318839474818</v>
       </c>
       <c r="S19">
-        <v>7.775140898025875E-05</v>
+        <v>0.001420845457028832</v>
       </c>
       <c r="T19">
-        <v>7.775140898025875E-05</v>
+        <v>0.001420845457028831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.06048449615627</v>
+        <v>3.263573</v>
       </c>
       <c r="H20">
-        <v>1.06048449615627</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="I20">
-        <v>0.002550163759378418</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="J20">
-        <v>0.002550163759378418</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.0699311999197</v>
+        <v>14.91142166666667</v>
       </c>
       <c r="N20">
-        <v>13.0699311999197</v>
+        <v>44.734265</v>
       </c>
       <c r="O20">
-        <v>0.173278032609226</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="P20">
-        <v>0.173278032609226</v>
+        <v>0.1870756632601971</v>
       </c>
       <c r="Q20">
-        <v>13.86045940334396</v>
+        <v>48.66451314294833</v>
       </c>
       <c r="R20">
-        <v>13.86045940334396</v>
+        <v>437.980618286535</v>
       </c>
       <c r="S20">
-        <v>0.0004418873590564399</v>
+        <v>0.001463144149757201</v>
       </c>
       <c r="T20">
-        <v>0.0004418873590564399</v>
+        <v>0.001463144149757201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.263573</v>
+      </c>
+      <c r="H21">
+        <v>9.790718999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.007821135706583939</v>
+      </c>
+      <c r="J21">
+        <v>0.007821135706583937</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04719266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.141578</v>
+      </c>
+      <c r="O21">
+        <v>0.0005920695970538957</v>
+      </c>
+      <c r="P21">
+        <v>0.0005920695970538957</v>
+      </c>
+      <c r="Q21">
+        <v>0.1540167127313333</v>
+      </c>
+      <c r="R21">
+        <v>1.386150414582</v>
+      </c>
+      <c r="S21">
+        <v>4.630656666300988E-06</v>
+      </c>
+      <c r="T21">
+        <v>4.630656666300987E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.176160333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.528481</v>
+      </c>
+      <c r="I22">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="J22">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>47.95321533333333</v>
+      </c>
+      <c r="N22">
+        <v>143.859646</v>
+      </c>
+      <c r="O22">
+        <v>0.6016112859309785</v>
+      </c>
+      <c r="P22">
+        <v>0.6016112859309785</v>
+      </c>
+      <c r="Q22">
+        <v>56.40066973085844</v>
+      </c>
+      <c r="R22">
+        <v>507.606027577726</v>
+      </c>
+      <c r="S22">
+        <v>0.001695738940543605</v>
+      </c>
+      <c r="T22">
+        <v>0.001695738940543605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.176160333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.528481</v>
+      </c>
+      <c r="I23">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="J23">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.315801333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.947404000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.0290535724960843</v>
+      </c>
+      <c r="P23">
+        <v>0.0290535724960843</v>
+      </c>
+      <c r="Q23">
+        <v>2.723753668147111</v>
+      </c>
+      <c r="R23">
+        <v>24.513783013324</v>
+      </c>
+      <c r="S23">
+        <v>8.189220414520142E-05</v>
+      </c>
+      <c r="T23">
+        <v>8.18922041452014E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.176160333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.528481</v>
+      </c>
+      <c r="I24">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="J24">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.48034066666667</v>
+      </c>
+      <c r="N24">
+        <v>43.441022</v>
+      </c>
+      <c r="O24">
+        <v>0.1816674087156862</v>
+      </c>
+      <c r="P24">
+        <v>0.1816674087156862</v>
+      </c>
+      <c r="Q24">
+        <v>17.03120230528689</v>
+      </c>
+      <c r="R24">
+        <v>153.280820747582</v>
+      </c>
+      <c r="S24">
+        <v>0.00051205904275902</v>
+      </c>
+      <c r="T24">
+        <v>0.0005120590427590198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.06048449615627</v>
-      </c>
-      <c r="H21">
-        <v>1.06048449615627</v>
-      </c>
-      <c r="I21">
-        <v>0.002550163759378418</v>
-      </c>
-      <c r="J21">
-        <v>0.002550163759378418</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.2550431531025</v>
-      </c>
-      <c r="N21">
-        <v>13.2550431531025</v>
-      </c>
-      <c r="O21">
-        <v>0.1757322027627891</v>
-      </c>
-      <c r="P21">
-        <v>0.1757322027627891</v>
-      </c>
-      <c r="Q21">
-        <v>14.05676775974752</v>
-      </c>
-      <c r="R21">
-        <v>14.05676775974752</v>
-      </c>
-      <c r="S21">
-        <v>0.0004481458948414048</v>
-      </c>
-      <c r="T21">
-        <v>0.0004481458948414048</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.176160333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.528481</v>
+      </c>
+      <c r="I25">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="J25">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.91142166666667</v>
+      </c>
+      <c r="N25">
+        <v>44.734265</v>
+      </c>
+      <c r="O25">
+        <v>0.1870756632601971</v>
+      </c>
+      <c r="P25">
+        <v>0.1870756632601971</v>
+      </c>
+      <c r="Q25">
+        <v>17.53822267794056</v>
+      </c>
+      <c r="R25">
+        <v>157.844004101465</v>
+      </c>
+      <c r="S25">
+        <v>0.0005273030849603015</v>
+      </c>
+      <c r="T25">
+        <v>0.0005273030849603014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.176160333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.528481</v>
+      </c>
+      <c r="I26">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="J26">
+        <v>0.002818662116551706</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04719266666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.141578</v>
+      </c>
+      <c r="O26">
+        <v>0.0005920695970538957</v>
+      </c>
+      <c r="P26">
+        <v>0.0005920695970538957</v>
+      </c>
+      <c r="Q26">
+        <v>0.05550614255755555</v>
+      </c>
+      <c r="R26">
+        <v>0.499555283018</v>
+      </c>
+      <c r="S26">
+        <v>1.668844143577849E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.668844143577849E-06</v>
       </c>
     </row>
   </sheetData>
